--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_21-03.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_21-03.xlsx
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>PSYCHOLANZ 12/50 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>2:44</t>
   </si>
   <si>
     <t>RANI-F 20MG 6 SACHETS</t>
@@ -3452,11 +3458,11 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>28</v>
+        <v>6.5999999999999996</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3464,7 +3470,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3472,17 +3478,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>7.0499999999999998</v>
+        <v>28</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3490,7 +3496,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3498,13 +3504,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3524,17 +3530,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3542,7 +3548,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3550,17 +3556,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>27</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3568,7 +3574,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3576,13 +3582,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>-185</v>
+        <v>27</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3594,7 +3600,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3602,17 +3608,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3620,7 +3626,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3628,17 +3634,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3646,7 +3652,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3654,17 +3660,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3672,7 +3678,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3680,17 +3686,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>45.5</v>
+        <v>39</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3706,17 +3712,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3724,7 +3730,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3738,7 +3744,7 @@
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3750,7 +3756,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3758,13 +3764,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3776,7 +3782,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3790,11 +3796,11 @@
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3802,7 +3808,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3810,17 +3816,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3828,7 +3834,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3842,11 +3848,11 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3854,7 +3860,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3862,17 +3868,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3880,7 +3886,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3888,17 +3894,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3906,7 +3912,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3914,17 +3920,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3932,7 +3938,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3940,17 +3946,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3958,7 +3964,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3966,13 +3972,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3984,7 +3990,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3992,17 +3998,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4010,7 +4016,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4018,17 +4024,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4044,17 +4050,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4062,7 +4068,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4070,17 +4076,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4088,7 +4094,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4096,13 +4102,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
@@ -4114,7 +4120,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4122,13 +4128,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4140,7 +4146,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4148,7 +4154,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
@@ -4166,7 +4172,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4174,13 +4180,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4206,7 +4212,7 @@
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4226,13 +4232,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
@@ -4244,7 +4250,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4252,17 +4258,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>163</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4270,7 +4276,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4278,17 +4284,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
-        <v>42</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4296,7 +4302,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4304,17 +4310,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4322,7 +4328,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4330,13 +4336,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4348,7 +4354,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4356,13 +4362,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
@@ -4374,7 +4380,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4382,13 +4388,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
@@ -4408,13 +4414,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>68.599999999999994</v>
+        <v>10</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
@@ -4426,7 +4432,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4434,13 +4440,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>15</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
@@ -4452,7 +4458,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4460,13 +4466,13 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>44.549999999999997</v>
+        <v>15</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
@@ -4478,7 +4484,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4486,13 +4492,13 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>20</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
@@ -4504,7 +4510,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4512,13 +4518,13 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
@@ -4538,51 +4544,77 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M135" s="9"/>
       <c t="s" r="N135" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" ht="24.75" customHeight="1">
+      <c r="A136" s="6">
+        <v>133</v>
+      </c>
+      <c t="s" r="B136" s="7">
+        <v>178</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c t="s" r="H136" s="8">
+        <v>177</v>
+      </c>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="9">
+        <v>70</v>
+      </c>
+      <c r="M136" s="9"/>
+      <c t="s" r="N136" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="K136" s="10">
-        <v>7194.4099999999999</v>
-      </c>
-      <c r="L136" s="10"/>
-      <c r="M136" s="10"/>
-      <c r="N136" s="10"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="11">
-        <v>177</v>
-      </c>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c t="s" r="F137" s="12">
-        <v>178</v>
-      </c>
-      <c r="G137" s="12"/>
-      <c r="H137" s="13"/>
-      <c t="s" r="I137" s="14">
+    <row r="137" ht="26.25" customHeight="1">
+      <c r="K137" s="10">
+        <v>7201.0100000000002</v>
+      </c>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="11">
         <v>179</v>
       </c>
-      <c r="J137" s="14"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="14"/>
-      <c r="M137" s="14"/>
-      <c r="N137" s="14"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c t="s" r="F138" s="12">
+        <v>180</v>
+      </c>
+      <c r="G138" s="12"/>
+      <c r="H138" s="13"/>
+      <c t="s" r="I138" s="14">
+        <v>181</v>
+      </c>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="410">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4986,10 +5018,13 @@
     <mergeCell ref="B135:G135"/>
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
-    <mergeCell ref="K136:N136"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="I137:N137"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="K137:N137"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="I138:N138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
